--- a/Data/Completing college/EducationReport(40).xlsx
+++ b/Data/Completing college/EducationReport(40).xlsx
@@ -323,2311 +323,2311 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">12000</t>
+          <t xml:space="preserve">42000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Florida</t>
+          <t xml:space="preserve">Pennsylvania</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.47444391603478</v>
+        <v>0.0874881052709308</v>
       </c>
       <c s="7" r="E4">
-        <v>0.333265014699706</v>
+        <v>0.135550127868619</v>
       </c>
       <c s="7" r="F4">
-        <v>0.255545298569803</v>
+        <v>0.179443439877291</v>
       </c>
       <c s="7" r="G4">
-        <v>0.201362311439507</v>
+        <v>0.22351409653963</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.141759544606092</v>
+        <v>0.270459824328157</v>
       </c>
       <c s="7" r="J4">
-        <v>0.109614516371767</v>
+        <v>0.33114756005517</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">12001</t>
+          <t xml:space="preserve">42001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Alachua, FL        </t>
+          <t xml:space="preserve">Adams, PA        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D5">
-        <v>0.40171998036747</v>
+        <v>0.0793677484445939</v>
       </c>
       <c s="7" r="E5">
-        <v>0.244786789242518</v>
+        <v>0.114719055374593</v>
       </c>
       <c s="7" r="F5">
-        <v>0.172698666302961</v>
+        <v>0.131508276884845</v>
       </c>
       <c s="7" r="G5">
-        <v>0.119474757941776</v>
+        <v>0.16660296146112</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.0925621991333668</v>
+        <v>0.193425419970142</v>
       </c>
       <c s="7" r="J5">
-        <v>0.0682067105557584</v>
+        <v>0.239963391478957</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">12003</t>
+          <t xml:space="preserve">42003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Baker, FL        </t>
+          <t xml:space="preserve">Allegheny, PA        </t>
         </is>
       </c>
       <c s="8" r="C6">
         <v>1</v>
       </c>
       <c s="7" r="D6">
-        <v>0.651012314756836</v>
+        <v>0.110789658138891</v>
       </c>
       <c s="7" r="E6">
-        <v>0.493432254925809</v>
+        <v>0.165001020891347</v>
       </c>
       <c s="7" r="F6">
-        <v>0.358674819749932</v>
+        <v>0.226196718693692</v>
       </c>
       <c s="7" r="G6">
-        <v>0.281086504694331</v>
+        <v>0.283428208503194</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.216227110445698</v>
+        <v>0.350997683585972</v>
       </c>
       <c s="7" r="J6">
-        <v>0.141816646434792</v>
+        <v>0.432903260808188</v>
       </c>
     </row>
     <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">12005</t>
+          <t xml:space="preserve">42005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Bay, FL        </t>
+          <t xml:space="preserve">Armstrong, PA        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="7" r="D7">
-        <v>0.490445530473457</v>
+        <v>0.0440115273775216</v>
       </c>
       <c s="7" r="E7">
-        <v>0.341676627477566</v>
+        <v>0.0673848797971118</v>
       </c>
       <c s="7" r="F7">
-        <v>0.253262662526684</v>
+        <v>0.0808270297528996</v>
       </c>
       <c s="7" r="G7">
-        <v>0.18959417065079</v>
+        <v>0.104467001066393</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.125956312528127</v>
+        <v>0.143308978080272</v>
       </c>
       <c s="7" r="J7">
-        <v>0.099211416277792</v>
+        <v>0.185442012186365</v>
       </c>
     </row>
     <row r="8" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">12007</t>
+          <t xml:space="preserve">42007</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Bradford, FL        </t>
+          <t xml:space="preserve">Beaver, PA        </t>
         </is>
       </c>
       <c s="8" r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D8">
-        <v>0.635064437922675</v>
+        <v>0.0616543914172591</v>
       </c>
       <c s="7" r="E8">
-        <v>0.464060424966799</v>
+        <v>0.094251112919439</v>
       </c>
       <c s="7" r="F8">
-        <v>0.350477200424178</v>
+        <v>0.119168496698072</v>
       </c>
       <c s="7" r="G8">
-        <v>0.258345915114914</v>
+        <v>0.157965225749017</v>
       </c>
       <c s="3" t="str" r="H8"/>
       <c s="7" r="I8">
-        <v>0.251256529023357</v>
+        <v>0.208705594120049</v>
       </c>
       <c s="7" r="J8">
-        <v>0.180195683170264</v>
+        <v>0.259030379705773</v>
       </c>
     </row>
     <row r="9" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">12009</t>
+          <t xml:space="preserve">42009</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Brevard, FL        </t>
+          <t xml:space="preserve">Bedford, PA        </t>
         </is>
       </c>
       <c s="8" r="C9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D9">
-        <v>0.292945597619108</v>
+        <v>0.0412938458307078</v>
       </c>
       <c s="7" r="E9">
-        <v>0.245719117750687</v>
+        <v>0.0653266331658292</v>
       </c>
       <c s="7" r="F9">
-        <v>0.176627750174872</v>
+        <v>0.0779908096973538</v>
       </c>
       <c s="7" r="G9">
-        <v>0.136622927079102</v>
+        <v>0.1024232259557</v>
       </c>
       <c s="3" t="str" r="H9"/>
       <c s="7" r="I9">
-        <v>0.0966712405346343</v>
+        <v>0.12064880112835</v>
       </c>
       <c s="7" r="J9">
-        <v>0.0750930629078476</v>
+        <v>0.157751404655429</v>
       </c>
     </row>
     <row r="10" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">12011</t>
+          <t xml:space="preserve">42011</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Broward, FL        </t>
+          <t xml:space="preserve">Berks, PA        </t>
         </is>
       </c>
       <c s="8" r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D10">
-        <v>0.445606561788397</v>
+        <v>0.0662516951604941</v>
       </c>
       <c s="7" r="E10">
-        <v>0.295526592868729</v>
+        <v>0.11372136512389</v>
       </c>
       <c s="7" r="F10">
-        <v>0.231560174404698</v>
+        <v>0.1512765067585</v>
       </c>
       <c s="7" r="G10">
-        <v>0.180411574946161</v>
+        <v>0.184884113411341</v>
       </c>
       <c s="3" t="str" r="H10"/>
       <c s="7" r="I10">
-        <v>0.123890441349354</v>
+        <v>0.223451790441433</v>
       </c>
       <c s="7" r="J10">
-        <v>0.100315130635179</v>
+        <v>0.258894435734522</v>
       </c>
     </row>
     <row r="11" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">12013</t>
+          <t xml:space="preserve">42013</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Calhoun, FL        </t>
+          <t xml:space="preserve">Blair, PA        </t>
         </is>
       </c>
       <c s="8" r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="7" r="D11">
-        <v>0.693294601791334</v>
+        <v>0.0521511391375102</v>
       </c>
       <c s="7" r="E11">
-        <v>0.529593880896012</v>
+        <v>0.0811196698101889</v>
       </c>
       <c s="7" r="F11">
-        <v>0.440542469664525</v>
+        <v>0.104731207551514</v>
       </c>
       <c s="7" r="G11">
-        <v>0.308644754615038</v>
+        <v>0.138831677341964</v>
       </c>
       <c s="3" t="str" r="H11"/>
       <c s="7" r="I11">
-        <v>0.264107038976149</v>
+        <v>0.179490073475469</v>
       </c>
       <c s="7" r="J11">
-        <v>0.223349753694581</v>
+        <v>0.2321083172147</v>
       </c>
     </row>
     <row r="12" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">12015</t>
+          <t xml:space="preserve">42015</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Charlotte, FL        </t>
+          <t xml:space="preserve">Bradford, PA        </t>
         </is>
       </c>
       <c s="8" r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="7" r="D12">
-        <v>0.46961612918457</v>
+        <v>0.0695909860622639</v>
       </c>
       <c s="7" r="E12">
-        <v>0.332579979813051</v>
+        <v>0.0885712709011644</v>
       </c>
       <c s="7" r="F12">
-        <v>0.243345877131779</v>
+        <v>0.128531432934589</v>
       </c>
       <c s="7" r="G12">
-        <v>0.178516153567228</v>
+        <v>0.148298293579712</v>
       </c>
       <c s="3" t="str" r="H12"/>
       <c s="7" r="I12">
-        <v>0.115984511554132</v>
+        <v>0.16421047821418</v>
       </c>
       <c s="7" r="J12">
-        <v>0.082470806362424</v>
+        <v>0.195216502596152</v>
       </c>
     </row>
     <row r="13" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">12017</t>
+          <t xml:space="preserve">42017</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">Citrus, FL        </t>
+          <t xml:space="preserve">Bucks, PA        </t>
         </is>
       </c>
       <c s="8" r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="7" r="D13">
-        <v>0.575363082248476</v>
+        <v>0.121245766165868</v>
       </c>
       <c s="7" r="E13">
-        <v>0.447354803735554</v>
+        <v>0.186159149628286</v>
       </c>
       <c s="7" r="F13">
-        <v>0.314292058733728</v>
+        <v>0.248172764060726</v>
       </c>
       <c s="7" r="G13">
-        <v>0.216839104045619</v>
+        <v>0.311961746258461</v>
       </c>
       <c s="3" t="str" r="H13"/>
       <c s="7" r="I13">
-        <v>0.146008603124293</v>
+        <v>0.350976076973138</v>
       </c>
       <c s="7" r="J13">
-        <v>0.101020028907702</v>
+        <v>0.429180368326597</v>
       </c>
     </row>
     <row r="14" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">12019</t>
+          <t xml:space="preserve">42019</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">Clay, FL        </t>
+          <t xml:space="preserve">Butler, PA        </t>
         </is>
       </c>
       <c s="8" r="C14">
         <v>1</v>
       </c>
       <c s="7" r="D14">
-        <v>0.465056082830026</v>
+        <v>0.0767426075665467</v>
       </c>
       <c s="7" r="E14">
-        <v>0.26314950166113</v>
+        <v>0.116812687406297</v>
       </c>
       <c s="7" r="F14">
-        <v>0.188499770607126</v>
+        <v>0.155941886537457</v>
       </c>
       <c s="7" r="G14">
-        <v>0.136055851828904</v>
+        <v>0.234880074436557</v>
       </c>
       <c s="3" t="str" r="H14"/>
       <c s="7" r="I14">
-        <v>0.1006048467855</v>
+        <v>0.296662271434699</v>
       </c>
       <c s="7" r="J14">
-        <v>0.0808151980619921</v>
+        <v>0.382076464653064</v>
       </c>
     </row>
     <row r="15" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">12021</t>
+          <t xml:space="preserve">42021</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">Collier, FL        </t>
+          <t xml:space="preserve">Cambria, PA        </t>
         </is>
       </c>
       <c s="8" r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D15">
-        <v>0.416132225713425</v>
+        <v>0.0542605890710802</v>
       </c>
       <c s="7" r="E15">
-        <v>0.288221901666696</v>
+        <v>0.0860089564391369</v>
       </c>
       <c s="7" r="F15">
-        <v>0.209676542045908</v>
+        <v>0.108225775729925</v>
       </c>
       <c s="7" r="G15">
-        <v>0.182469504793453</v>
+        <v>0.137048136355123</v>
       </c>
       <c s="3" t="str" r="H15"/>
       <c s="7" r="I15">
-        <v>0.14938852936486</v>
+        <v>0.17932810948453</v>
       </c>
       <c s="7" r="J15">
-        <v>0.105242294766826</v>
+        <v>0.223529779323704</v>
       </c>
     </row>
     <row r="16" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">12023</t>
+          <t xml:space="preserve">42023</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">Columbia, FL        </t>
+          <t xml:space="preserve">Cameron, PA        </t>
         </is>
       </c>
       <c s="8" r="C16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c s="7" r="D16">
-        <v>0.565267439183486</v>
+        <v>0.0587636733655558</v>
       </c>
       <c s="7" r="E16">
-        <v>0.411457548827635</v>
+        <v>0.0727141828653708</v>
       </c>
       <c s="7" r="F16">
-        <v>0.309773091396848</v>
+        <v>0.0975424372941475</v>
       </c>
       <c s="7" r="G16">
-        <v>0.25306399132321</v>
+        <v>0.120963855421687</v>
       </c>
       <c s="3" t="str" r="H16"/>
       <c s="7" r="I16">
-        <v>0.188685451156671</v>
+        <v>0.139190261974067</v>
       </c>
       <c s="7" r="J16">
-        <v>0.135246760870477</v>
+        <v>0.10616727682343</v>
       </c>
     </row>
     <row r="17" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">12027</t>
+          <t xml:space="preserve">42025</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">DeSoto, FL        </t>
+          <t xml:space="preserve">Carbon, PA        </t>
         </is>
       </c>
       <c s="8" r="C17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c s="7" r="D17">
-        <v>0.640918843872271</v>
+        <v>0.0385574152610962</v>
       </c>
       <c s="7" r="E17">
-        <v>0.494225926890683</v>
+        <v>0.0730952311421312</v>
       </c>
       <c s="7" r="F17">
-        <v>0.455383093191516</v>
+        <v>0.0840994647750263</v>
       </c>
       <c s="7" r="G17">
-        <v>0.364527377250024</v>
+        <v>0.109594627008875</v>
       </c>
       <c s="3" t="str" r="H17"/>
       <c s="7" r="I17">
-        <v>0.284622067767159</v>
+        <v>0.154814120853383</v>
       </c>
       <c s="7" r="J17">
-        <v>0.252119589468987</v>
+        <v>0.176743408682572</v>
       </c>
     </row>
     <row r="18" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">12029</t>
+          <t xml:space="preserve">42027</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">Dixie, FL        </t>
+          <t xml:space="preserve">Centre, PA        </t>
         </is>
       </c>
       <c s="8" r="C18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="7" r="D18">
-        <v>0.656711047139259</v>
+        <v>0.23203771849126</v>
       </c>
       <c s="7" r="E18">
-        <v>0.505668449197861</v>
+        <v>0.2745203249024</v>
       </c>
       <c s="7" r="F18">
-        <v>0.422578397212544</v>
+        <v>0.32310567243354</v>
       </c>
       <c s="7" r="G18">
-        <v>0.34097272632998</v>
+        <v>0.36278665507789</v>
       </c>
       <c s="3" t="str" r="H18"/>
       <c s="7" r="I18">
-        <v>0.235609456015467</v>
+        <v>0.399202137048848</v>
       </c>
       <c s="7" r="J18">
-        <v>0.190987812700449</v>
+        <v>0.458619000979432</v>
       </c>
     </row>
     <row r="19" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">12031</t>
+          <t xml:space="preserve">42029</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">Duval, FL        </t>
+          <t xml:space="preserve">Chester, PA        </t>
         </is>
       </c>
       <c s="8" r="C19">
         <v>1</v>
       </c>
       <c s="7" r="D19">
-        <v>0.483906002069044</v>
+        <v>0.171484250337808</v>
       </c>
       <c s="7" r="E19">
-        <v>0.332280724170766</v>
+        <v>0.262858734725146</v>
       </c>
       <c s="7" r="F19">
-        <v>0.231256485237242</v>
+        <v>0.346856446637626</v>
       </c>
       <c s="7" r="G19">
-        <v>0.1728095564069</v>
+        <v>0.424580849217679</v>
       </c>
       <c s="3" t="str" r="H19"/>
       <c s="7" r="I19">
-        <v>0.124588689912866</v>
+        <v>0.48271943231112</v>
       </c>
       <c s="7" r="J19">
-        <v>0.0950040330711837</v>
+        <v>0.552443337415883</v>
       </c>
     </row>
     <row r="20" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">12033</t>
+          <t xml:space="preserve">42031</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">Escambia, FL        </t>
+          <t xml:space="preserve">Clarion, PA        </t>
         </is>
       </c>
       <c s="8" r="C20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D20">
-        <v>0.496826306947923</v>
+        <v>0.0717615552469748</v>
       </c>
       <c s="7" r="E20">
-        <v>0.327006999078467</v>
+        <v>0.109968860640703</v>
       </c>
       <c s="7" r="F20">
-        <v>0.237925060874411</v>
+        <v>0.117465657415195</v>
       </c>
       <c s="7" r="G20">
-        <v>0.179442306678615</v>
+        <v>0.1528442317916</v>
       </c>
       <c s="3" t="str" r="H20"/>
       <c s="7" r="I20">
-        <v>0.128605198531627</v>
+        <v>0.183130199264848</v>
       </c>
       <c s="7" r="J20">
-        <v>0.0940051653227863</v>
+        <v>0.220539443381865</v>
       </c>
     </row>
     <row r="21" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">12035</t>
+          <t xml:space="preserve">42033</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">Flagler, FL        </t>
+          <t xml:space="preserve">Clearfield, PA        </t>
         </is>
       </c>
       <c s="8" r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D21">
-        <v>0.553585196607556</v>
+        <v>0.0426622765757291</v>
       </c>
       <c s="7" r="E21">
-        <v>0.2921453379642</v>
+        <v>0.0759914124843035</v>
       </c>
       <c s="7" r="F21">
-        <v>0.212974639204147</v>
+        <v>0.0859630032644178</v>
       </c>
       <c s="7" r="G21">
-        <v>0.141210897037497</v>
+        <v>0.111286937975163</v>
       </c>
       <c s="3" t="str" r="H21"/>
       <c s="7" r="I21">
-        <v>0.10160110693813</v>
+        <v>0.129028419907533</v>
       </c>
       <c s="7" r="J21">
-        <v>0.0767924119611934</v>
+        <v>0.183691800988073</v>
       </c>
     </row>
     <row r="22" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">12037</t>
+          <t xml:space="preserve">42035</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">Franklin, FL        </t>
+          <t xml:space="preserve">Clinton, PA        </t>
         </is>
       </c>
       <c s="8" r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="7" r="D22">
-        <v>0.64748743718593</v>
+        <v>0.0707796939519067</v>
       </c>
       <c s="7" r="E22">
-        <v>0.559653410353255</v>
+        <v>0.0929492843258526</v>
       </c>
       <c s="7" r="F22">
-        <v>0.405108891436057</v>
+        <v>0.116585054289972</v>
       </c>
       <c s="7" r="G22">
-        <v>0.317361619117288</v>
+        <v>0.133881219383831</v>
       </c>
       <c s="3" t="str" r="H22"/>
       <c s="7" r="I22">
-        <v>0.207855602224997</v>
+        <v>0.171142539329414</v>
       </c>
       <c s="7" r="J22">
-        <v>0.211085642842259</v>
+        <v>0.193465210910116</v>
       </c>
     </row>
     <row r="23" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">12039</t>
+          <t xml:space="preserve">42037</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">Gadsden, FL        </t>
+          <t xml:space="preserve">Columbia, PA        </t>
         </is>
       </c>
       <c s="8" r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D23">
-        <v>0.693598657396308</v>
+        <v>0.0614037921121483</v>
       </c>
       <c s="7" r="E23">
-        <v>0.528996380969194</v>
+        <v>0.101764093573659</v>
       </c>
       <c s="7" r="F23">
-        <v>0.401354749736351</v>
+        <v>0.124832655535629</v>
       </c>
       <c s="7" r="G23">
-        <v>0.293101064565187</v>
+        <v>0.15766479427721</v>
       </c>
       <c s="3" t="str" r="H23"/>
       <c s="7" r="I23">
-        <v>0.232048732758893</v>
+        <v>0.199588571428571</v>
       </c>
       <c s="7" r="J23">
-        <v>0.192192867002664</v>
+        <v>0.247889450685214</v>
       </c>
     </row>
     <row r="24" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">12041</t>
+          <t xml:space="preserve">42039</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">Gilchrist, FL        </t>
+          <t xml:space="preserve">Crawford, PA        </t>
         </is>
       </c>
       <c s="8" r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D24">
-        <v>0.684050632911392</v>
+        <v>0.071249159004261</v>
       </c>
       <c s="7" r="E24">
-        <v>0.434522025771651</v>
+        <v>0.104698192413119</v>
       </c>
       <c s="7" r="F24">
-        <v>0.370214909335124</v>
+        <v>0.117523513834353</v>
       </c>
       <c s="7" r="G24">
-        <v>0.275998195353034</v>
+        <v>0.146990818309765</v>
       </c>
       <c s="3" t="str" r="H24"/>
       <c s="7" r="I24">
-        <v>0.208466170740347</v>
+        <v>0.185506039150354</v>
       </c>
       <c s="7" r="J24">
-        <v>0.136904280281576</v>
+        <v>0.202171560005412</v>
       </c>
     </row>
     <row r="25" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">12043</t>
+          <t xml:space="preserve">42041</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">Glades, FL        </t>
+          <t xml:space="preserve">Cumberland, PA        </t>
         </is>
       </c>
       <c s="8" r="C25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c s="7" r="D25">
-        <v>0.678790983606557</v>
+        <v>0.124592049963607</v>
       </c>
       <c s="7" r="E25">
-        <v>0.469761273209549</v>
+        <v>0.190023730777136</v>
       </c>
       <c s="7" r="F25">
-        <v>0.426125432858792</v>
+        <v>0.228919349397023</v>
       </c>
       <c s="7" r="G25">
-        <v>0.301634472511144</v>
+        <v>0.279194258572271</v>
       </c>
       <c s="3" t="str" r="H25"/>
       <c s="7" r="I25">
-        <v>0.244458585215824</v>
+        <v>0.324190235815208</v>
       </c>
       <c s="7" r="J25">
-        <v>0.305770620419118</v>
+        <v>0.382004599994458</v>
       </c>
     </row>
     <row r="26" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">12045</t>
+          <t xml:space="preserve">42043</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">Gulf, FL        </t>
+          <t xml:space="preserve">Dauphin, PA        </t>
         </is>
       </c>
       <c s="8" r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="7" r="D26">
-        <v>0.57679180887372</v>
+        <v>0.080324930575321</v>
       </c>
       <c s="7" r="E26">
-        <v>0.41362018764154</v>
+        <v>0.143023869730736</v>
       </c>
       <c s="7" r="F26">
-        <v>0.336212537625965</v>
+        <v>0.185687750878855</v>
       </c>
       <c s="7" r="G26">
-        <v>0.274168153668521</v>
+        <v>0.235064005169312</v>
       </c>
       <c s="3" t="str" r="H26"/>
       <c s="7" r="I26">
-        <v>0.216530457494313</v>
+        <v>0.275472666142695</v>
       </c>
       <c s="7" r="J26">
-        <v>0.132612551735789</v>
+        <v>0.322571316960322</v>
       </c>
     </row>
     <row r="27" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">12047</t>
+          <t xml:space="preserve">42045</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">Hamilton, FL        </t>
+          <t xml:space="preserve">Delaware, PA        </t>
         </is>
       </c>
       <c s="8" r="C27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D27">
-        <v>0.677038895859473</v>
+        <v>0.139080260769892</v>
       </c>
       <c s="7" r="E27">
-        <v>0.505598985844073</v>
+        <v>0.188840483065959</v>
       </c>
       <c s="7" r="F27">
-        <v>0.416488875342883</v>
+        <v>0.247510138770105</v>
       </c>
       <c s="7" r="G27">
-        <v>0.371203471112126</v>
+        <v>0.30032258594533</v>
       </c>
       <c s="3" t="str" r="H27"/>
       <c s="7" r="I27">
-        <v>0.260584015358189</v>
+        <v>0.349019046487257</v>
       </c>
       <c s="7" r="J27">
-        <v>0.240815541450279</v>
+        <v>0.405477343506298</v>
       </c>
     </row>
     <row r="28" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">12049</t>
+          <t xml:space="preserve">42047</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">Hardee, FL        </t>
+          <t xml:space="preserve">Elk, PA        </t>
         </is>
       </c>
       <c s="8" r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="7" r="D28">
-        <v>0.645679492162197</v>
+        <v>0.0529139594408348</v>
       </c>
       <c s="7" r="E28">
-        <v>0.551102391629297</v>
+        <v>0.0883847388126226</v>
       </c>
       <c s="7" r="F28">
-        <v>0.451550387596899</v>
+        <v>0.0953437771975631</v>
       </c>
       <c s="7" r="G28">
-        <v>0.420437337210007</v>
+        <v>0.123310186136336</v>
       </c>
       <c s="3" t="str" r="H28"/>
       <c s="7" r="I28">
-        <v>0.369222500895736</v>
+        <v>0.156545151502201</v>
       </c>
       <c s="7" r="J28">
-        <v>0.237592715431466</v>
+        <v>0.188099217169496</v>
       </c>
     </row>
     <row r="29" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">12051</t>
+          <t xml:space="preserve">42049</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">Hendry, FL        </t>
+          <t xml:space="preserve">Erie, PA        </t>
         </is>
       </c>
       <c s="8" r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="7" r="D29">
-        <v>0.636241835538436</v>
+        <v>0.0884285388518329</v>
       </c>
       <c s="7" r="E29">
-        <v>0.494691933723584</v>
+        <v>0.132362147543447</v>
       </c>
       <c s="7" r="F29">
-        <v>0.434018766220803</v>
+        <v>0.162164685561566</v>
       </c>
       <c s="7" r="G29">
-        <v>0.458371855384166</v>
+        <v>0.208710426082418</v>
       </c>
       <c s="3" t="str" r="H29"/>
       <c s="7" r="I29">
-        <v>0.356932907348243</v>
+        <v>0.241974089130352</v>
       </c>
       <c s="7" r="J29">
-        <v>0.306808663395955</v>
+        <v>0.288103027747682</v>
       </c>
     </row>
     <row r="30" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">12053</t>
+          <t xml:space="preserve">42051</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">Hernando, FL        </t>
+          <t xml:space="preserve">Fayette, PA        </t>
         </is>
       </c>
       <c s="8" r="C30">
         <v>1</v>
       </c>
       <c s="7" r="D30">
-        <v>0.591551951725438</v>
+        <v>0.0457921627765649</v>
       </c>
       <c s="7" r="E30">
-        <v>0.400771443928041</v>
+        <v>0.0719381749321869</v>
       </c>
       <c s="7" r="F30">
-        <v>0.295302188827181</v>
+        <v>0.0928191489361702</v>
       </c>
       <c s="7" r="G30">
-        <v>0.215326699097717</v>
+        <v>0.114582425140709</v>
       </c>
       <c s="3" t="str" r="H30"/>
       <c s="7" r="I30">
-        <v>0.143005279034691</v>
+        <v>0.139786145036234</v>
       </c>
       <c s="7" r="J30">
-        <v>0.110120973071492</v>
+        <v>0.178965412078956</v>
       </c>
     </row>
     <row r="31" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">12055</t>
+          <t xml:space="preserve">42053</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">Highlands, FL        </t>
+          <t xml:space="preserve">Forest, PA        </t>
         </is>
       </c>
       <c s="8" r="C31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c s="7" r="D31">
-        <v>0.564397046759639</v>
+        <v>0.0188552188552189</v>
       </c>
       <c s="7" r="E31">
-        <v>0.428052503052503</v>
+        <v>0.0581863200247601</v>
       </c>
       <c s="7" r="F31">
-        <v>0.317815525537712</v>
+        <v>0.0790739627179795</v>
       </c>
       <c s="7" r="G31">
-        <v>0.254843517138599</v>
+        <v>0.0889830508474576</v>
       </c>
       <c s="3" t="str" r="H31"/>
       <c s="7" r="I31">
-        <v>0.196454091950924</v>
+        <v>0.0917699724517906</v>
       </c>
       <c s="7" r="J31">
-        <v>0.140923321699856</v>
+        <v>0.112295081967213</v>
       </c>
     </row>
     <row r="32" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">12057</t>
+          <t xml:space="preserve">42055</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">Hillsborough, FL        </t>
+          <t xml:space="preserve">Franklin, PA        </t>
         </is>
       </c>
       <c s="8" r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="7" r="D32">
-        <v>0.507368240496983</v>
+        <v>0.0687329112102461</v>
       </c>
       <c s="7" r="E32">
-        <v>0.341522215684539</v>
+        <v>0.102844606946984</v>
       </c>
       <c s="7" r="F32">
-        <v>0.244024072511101</v>
+        <v>0.123921332530604</v>
       </c>
       <c s="7" r="G32">
-        <v>0.192375516371717</v>
+        <v>0.147739287622642</v>
       </c>
       <c s="3" t="str" r="H32"/>
       <c s="7" r="I32">
-        <v>0.135841666237452</v>
+        <v>0.1927492328657</v>
       </c>
       <c s="7" r="J32">
-        <v>0.108164108565241</v>
+        <v>0.229713122271543</v>
       </c>
     </row>
     <row r="33" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">12059</t>
+          <t xml:space="preserve">42057</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">Holmes, FL        </t>
+          <t xml:space="preserve">Fulton, PA        </t>
         </is>
       </c>
       <c s="8" r="C33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c s="7" r="D33">
-        <v>0.715489821882952</v>
+        <v>0.0338492940976357</v>
       </c>
       <c s="7" r="E33">
-        <v>0.562619988706945</v>
+        <v>0.0726107848371596</v>
       </c>
       <c s="7" r="F33">
-        <v>0.429300221388007</v>
+        <v>0.0736710869318826</v>
       </c>
       <c s="7" r="G33">
-        <v>0.347894778418516</v>
+        <v>0.0930112521936616</v>
       </c>
       <c s="3" t="str" r="H33"/>
       <c s="7" r="I33">
-        <v>0.241040955631399</v>
+        <v>0.112718156397647</v>
       </c>
       <c s="7" r="J33">
-        <v>0.195157791617102</v>
+        <v>0.157477341389728</v>
       </c>
     </row>
     <row r="34" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">12061</t>
+          <t xml:space="preserve">42059</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">Indian River, FL        </t>
+          <t xml:space="preserve">Greene, PA        </t>
         </is>
       </c>
       <c s="8" r="C34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="7" r="D34">
-        <v>0.465313343886768</v>
+        <v>0.0511197663096397</v>
       </c>
       <c s="7" r="E34">
-        <v>0.333549707894343</v>
+        <v>0.0948372848868703</v>
       </c>
       <c s="7" r="F34">
-        <v>0.235306446300787</v>
+        <v>0.113296431515723</v>
       </c>
       <c s="7" r="G34">
-        <v>0.184441210916705</v>
+        <v>0.122343108293105</v>
       </c>
       <c s="3" t="str" r="H34"/>
       <c s="7" r="I34">
-        <v>0.133226589034449</v>
+        <v>0.150407854427343</v>
       </c>
       <c s="7" r="J34">
-        <v>0.0886915247602271</v>
+        <v>0.180081222200735</v>
       </c>
     </row>
     <row r="35" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">12063</t>
+          <t xml:space="preserve">42061</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">Jackson, FL        </t>
+          <t xml:space="preserve">Huntingdon, PA        </t>
         </is>
       </c>
       <c s="8" r="C35">
         <v>6</v>
       </c>
       <c s="7" r="D35">
-        <v>0.636782871259951</v>
+        <v>0.0624942644764614</v>
       </c>
       <c s="7" r="E35">
-        <v>0.488884936866441</v>
+        <v>0.0861563190677115</v>
       </c>
       <c s="7" r="F35">
-        <v>0.383881824981301</v>
+        <v>0.0944121966571089</v>
       </c>
       <c s="7" r="G35">
-        <v>0.308677724969312</v>
+        <v>0.118676168464304</v>
       </c>
       <c s="3" t="str" r="H35"/>
       <c s="7" r="I35">
-        <v>0.212455667470563</v>
+        <v>0.13653193458809</v>
       </c>
       <c s="7" r="J35">
-        <v>0.166462668298654</v>
+        <v>0.17456514298161</v>
       </c>
     </row>
     <row r="36" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">12065</t>
+          <t xml:space="preserve">42063</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">Jefferson, FL        </t>
+          <t xml:space="preserve">Indiana, PA        </t>
         </is>
       </c>
       <c s="8" r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D36">
-        <v>0.659487644525051</v>
+        <v>0.080093217220655</v>
       </c>
       <c s="7" r="E36">
-        <v>0.482706766917293</v>
+        <v>0.111937141130251</v>
       </c>
       <c s="7" r="F36">
-        <v>0.358661752197335</v>
+        <v>0.144462760377641</v>
       </c>
       <c s="7" r="G36">
-        <v>0.268320053866008</v>
+        <v>0.169765157603357</v>
       </c>
       <c s="3" t="str" r="H36"/>
       <c s="7" r="I36">
-        <v>0.19140588510042</v>
+        <v>0.211296177663891</v>
       </c>
       <c s="7" r="J36">
-        <v>0.161948955916473</v>
+        <v>0.257044686034251</v>
       </c>
     </row>
     <row r="37" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">12067</t>
+          <t xml:space="preserve">42065</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">Lafayette, FL        </t>
+          <t xml:space="preserve">Jefferson, PA        </t>
         </is>
       </c>
       <c s="8" r="C37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="7" r="D37">
-        <v>0.672648514851485</v>
+        <v>0.0483191638717729</v>
       </c>
       <c s="7" r="E37">
-        <v>0.460771564802774</v>
+        <v>0.0835343579846992</v>
       </c>
       <c s="7" r="F37">
-        <v>0.417802503477051</v>
+        <v>0.0893261933703473</v>
       </c>
       <c s="7" r="G37">
-        <v>0.317808219178082</v>
+        <v>0.116961656587405</v>
       </c>
       <c s="3" t="str" r="H37"/>
       <c s="7" r="I37">
-        <v>0.193253689388616</v>
+        <v>0.125564360812048</v>
       </c>
       <c s="7" r="J37">
-        <v>0.263800602208096</v>
+        <v>0.16376317616613</v>
       </c>
     </row>
     <row r="38" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">12069</t>
+          <t xml:space="preserve">42067</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">Lake, FL        </t>
+          <t xml:space="preserve">Juniata, PA        </t>
         </is>
       </c>
       <c s="8" r="C38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D38">
-        <v>0.517794083925705</v>
+        <v>0.0379213483146067</v>
       </c>
       <c s="7" r="E38">
-        <v>0.381678542712175</v>
+        <v>0.0669923237962317</v>
       </c>
       <c s="7" r="F38">
-        <v>0.293797217409941</v>
+        <v>0.0725145327172455</v>
       </c>
       <c s="7" r="G38">
-        <v>0.20236289306559</v>
+        <v>0.087816091954023</v>
       </c>
       <c s="3" t="str" r="H38"/>
       <c s="7" r="I38">
-        <v>0.128648189130626</v>
+        <v>0.111511216056671</v>
       </c>
       <c s="7" r="J38">
-        <v>0.096196111580727</v>
+        <v>0.145097801731969</v>
       </c>
     </row>
     <row r="39" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">12071</t>
+          <t xml:space="preserve">42069</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">Lee, FL        </t>
+          <t xml:space="preserve">Lackawanna, PA        </t>
         </is>
       </c>
       <c s="8" r="C39">
         <v>2</v>
       </c>
       <c s="7" r="D39">
-        <v>0.459318134281531</v>
+        <v>0.0596510735926471</v>
       </c>
       <c s="7" r="E39">
-        <v>0.326412036545579</v>
+        <v>0.106944033471191</v>
       </c>
       <c s="7" r="F39">
-        <v>0.231007619350136</v>
+        <v>0.148132222520828</v>
       </c>
       <c s="7" r="G39">
-        <v>0.177067311213653</v>
+        <v>0.195981527991574</v>
       </c>
       <c s="3" t="str" r="H39"/>
       <c s="7" r="I39">
-        <v>0.12922540015051</v>
+        <v>0.250507840521316</v>
       </c>
       <c s="7" r="J39">
-        <v>0.102327488797288</v>
+        <v>0.294240170311186</v>
       </c>
     </row>
     <row r="40" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">12073</t>
+          <t xml:space="preserve">42071</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">Leon, FL        </t>
+          <t xml:space="preserve">Lancaster, PA        </t>
         </is>
       </c>
       <c s="8" r="C40">
         <v>2</v>
       </c>
       <c s="7" r="D40">
-        <v>0.355288647810926</v>
+        <v>0.0824481887693319</v>
       </c>
       <c s="7" r="E40">
-        <v>0.212091795130664</v>
+        <v>0.12989956048843</v>
       </c>
       <c s="7" r="F40">
-        <v>0.151270113534264</v>
+        <v>0.166785703545545</v>
       </c>
       <c s="7" r="G40">
-        <v>0.108821626180591</v>
+        <v>0.205085569399312</v>
       </c>
       <c s="3" t="str" r="H40"/>
       <c s="7" r="I40">
-        <v>0.0830938727366268</v>
+        <v>0.235375144647882</v>
       </c>
       <c s="7" r="J40">
-        <v>0.0680142632743617</v>
+        <v>0.297310089986392</v>
       </c>
     </row>
     <row r="41" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">12075</t>
+          <t xml:space="preserve">42073</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">Levy, FL        </t>
+          <t xml:space="preserve">Lawrence, PA        </t>
         </is>
       </c>
       <c s="8" r="C41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="7" r="D41">
-        <v>0.65570789031897</v>
+        <v>0.0619627033461182</v>
       </c>
       <c s="7" r="E41">
-        <v>0.461625373254782</v>
+        <v>0.0998100736914077</v>
       </c>
       <c s="7" r="F41">
-        <v>0.371848739495798</v>
+        <v>0.118406423718345</v>
       </c>
       <c s="7" r="G41">
-        <v>0.260965459841864</v>
+        <v>0.150971945589575</v>
       </c>
       <c s="3" t="str" r="H41"/>
       <c s="7" r="I41">
-        <v>0.190590111642743</v>
+        <v>0.193732060401847</v>
       </c>
       <c s="7" r="J41">
-        <v>0.124406366320113</v>
+        <v>0.214805140360212</v>
       </c>
     </row>
     <row r="42" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">12077</t>
+          <t xml:space="preserve">42075</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">Liberty, FL        </t>
+          <t xml:space="preserve">Lebanon, PA        </t>
         </is>
       </c>
       <c s="8" r="C42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c s="7" r="D42">
-        <v>0.696536558548653</v>
+        <v>0.0599611774971952</v>
       </c>
       <c s="7" r="E42">
-        <v>0.523213564796124</v>
+        <v>0.0939004086574845</v>
       </c>
       <c s="7" r="F42">
-        <v>0.43301834352418</v>
+        <v>0.117742514731116</v>
       </c>
       <c s="7" r="G42">
-        <v>0.344449047224524</v>
+        <v>0.153911813481612</v>
       </c>
       <c s="3" t="str" r="H42"/>
       <c s="7" r="I42">
-        <v>0.260761294912842</v>
+        <v>0.190917232792328</v>
       </c>
       <c s="7" r="J42">
-        <v>0.230006954102921</v>
+        <v>0.220546837412605</v>
       </c>
     </row>
     <row r="43" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">12079</t>
+          <t xml:space="preserve">42077</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">Madison, FL        </t>
+          <t xml:space="preserve">Lehigh, PA        </t>
         </is>
       </c>
       <c s="8" r="C43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c s="7" r="D43">
-        <v>0.698355968548964</v>
+        <v>0.0883482884679295</v>
       </c>
       <c s="7" r="E43">
-        <v>0.564900107668381</v>
+        <v>0.141827929478532</v>
       </c>
       <c s="7" r="F43">
-        <v>0.434791097227645</v>
+        <v>0.196306540018371</v>
       </c>
       <c s="7" r="G43">
-        <v>0.325199934715195</v>
+        <v>0.233287094726448</v>
       </c>
       <c s="3" t="str" r="H43"/>
       <c s="7" r="I43">
-        <v>0.227623807360291</v>
+        <v>0.274331013278373</v>
       </c>
       <c s="7" r="J43">
-        <v>0.195304955055345</v>
+        <v>0.314617240726722</v>
       </c>
     </row>
     <row r="44" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">12081</t>
+          <t xml:space="preserve">42079</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">Manatee, FL        </t>
+          <t xml:space="preserve">Luzerne, PA        </t>
         </is>
       </c>
       <c s="8" r="C44">
         <v>2</v>
       </c>
       <c s="7" r="D44">
-        <v>0.472926113630301</v>
+        <v>0.0546016059295862</v>
       </c>
       <c s="7" r="E44">
-        <v>0.334518068817122</v>
+        <v>0.0924749291893133</v>
       </c>
       <c s="7" r="F44">
-        <v>0.244204710411378</v>
+        <v>0.130537642951409</v>
       </c>
       <c s="7" r="G44">
-        <v>0.185575940536026</v>
+        <v>0.163605361039695</v>
       </c>
       <c s="3" t="str" r="H44"/>
       <c s="7" r="I44">
-        <v>0.130037563952204</v>
+        <v>0.204626546935311</v>
       </c>
       <c s="7" r="J44">
-        <v>0.0974082770963553</v>
+        <v>0.240206488147649</v>
       </c>
     </row>
     <row r="45" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">12083</t>
+          <t xml:space="preserve">42081</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">Marion, FL        </t>
+          <t xml:space="preserve">Lycoming, PA        </t>
         </is>
       </c>
       <c s="8" r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D45">
-        <v>0.527916314995268</v>
+        <v>0.0743620319580253</v>
       </c>
       <c s="7" r="E45">
-        <v>0.405408499433965</v>
+        <v>0.103470218903784</v>
       </c>
       <c s="7" r="F45">
-        <v>0.30426055284268</v>
+        <v>0.122992790166768</v>
       </c>
       <c s="7" r="G45">
-        <v>0.218033303594801</v>
+        <v>0.150596273291925</v>
       </c>
       <c s="3" t="str" r="H45"/>
       <c s="7" r="I45">
-        <v>0.151900448033086</v>
+        <v>0.186330247534715</v>
       </c>
       <c s="7" r="J45">
-        <v>0.116170255949318</v>
+        <v>0.243205964585275</v>
       </c>
     </row>
     <row r="46" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">12085</t>
+          <t xml:space="preserve">42083</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">Martin, FL        </t>
+          <t xml:space="preserve">McKean, PA        </t>
         </is>
       </c>
       <c s="8" r="C46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="7" r="D46">
-        <v>0.488544856527163</v>
+        <v>0.0662251655629139</v>
       </c>
       <c s="7" r="E46">
-        <v>0.296191375511489</v>
+        <v>0.0920522644660576</v>
       </c>
       <c s="7" r="F46">
-        <v>0.203039323202256</v>
+        <v>0.121778433132453</v>
       </c>
       <c s="7" r="G46">
-        <v>0.147024371028435</v>
+        <v>0.140346982143424</v>
       </c>
       <c s="3" t="str" r="H46"/>
       <c s="7" r="I46">
-        <v>0.114982296590521</v>
+        <v>0.151812240047534</v>
       </c>
       <c s="7" r="J46">
-        <v>0.0789649497303199</v>
+        <v>0.195278969957082</v>
       </c>
     </row>
     <row r="47" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">12086</t>
+          <t xml:space="preserve">42085</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B47">
         <is>
-          <t xml:space="preserve">Miami-Dade, FL        </t>
+          <t xml:space="preserve">Mercer, PA        </t>
         </is>
       </c>
       <c s="8" r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D47">
-        <v>0.480740416341244</v>
+        <v>0.0782213239009601</v>
       </c>
       <c s="7" r="E47">
-        <v>0.360014343466904</v>
+        <v>0.116701688847381</v>
       </c>
       <c s="7" r="F47">
-        <v>0.349866346157598</v>
+        <v>0.135692994599718</v>
       </c>
       <c s="7" r="G47">
-        <v>0.321327614025844</v>
+        <v>0.172922367145609</v>
       </c>
       <c s="3" t="str" r="H47"/>
       <c s="7" r="I47">
-        <v>0.218288094715561</v>
+        <v>0.199523756093304</v>
       </c>
       <c s="7" r="J47">
-        <v>0.175102821092603</v>
+        <v>0.231355470876429</v>
       </c>
     </row>
     <row r="48" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">12087</t>
+          <t xml:space="preserve">42087</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B48">
         <is>
-          <t xml:space="preserve">Monroe, FL        </t>
+          <t xml:space="preserve">Mifflin, PA        </t>
         </is>
       </c>
       <c s="8" r="C48">
         <v>4</v>
       </c>
       <c s="7" r="D48">
-        <v>0.440021363717287</v>
+        <v>0.0500432764182863</v>
       </c>
       <c s="7" r="E48">
-        <v>0.276967794442507</v>
+        <v>0.0682513449840008</v>
       </c>
       <c s="7" r="F48">
-        <v>0.202816420585474</v>
+        <v>0.0870826329147302</v>
       </c>
       <c s="7" r="G48">
-        <v>0.150945864194503</v>
+        <v>0.109072567933926</v>
       </c>
       <c s="3" t="str" r="H48"/>
       <c s="7" r="I48">
-        <v>0.106695441625434</v>
+        <v>0.112141756548536</v>
       </c>
       <c s="7" r="J48">
-        <v>0.079330354372246</v>
+        <v>0.133028514937131</v>
       </c>
     </row>
     <row r="49" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">12089</t>
+          <t xml:space="preserve">42089</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B49">
         <is>
-          <t xml:space="preserve">Nassau, FL        </t>
+          <t xml:space="preserve">Monroe, PA        </t>
         </is>
       </c>
       <c s="8" r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="7" r="D49">
-        <v>0.61510376633359</v>
+        <v>0.0927878532264867</v>
       </c>
       <c s="7" r="E49">
-        <v>0.41870897155361</v>
+        <v>0.140133327117617</v>
       </c>
       <c s="7" r="F49">
-        <v>0.288180942527916</v>
+        <v>0.175705233362282</v>
       </c>
       <c s="7" r="G49">
-        <v>0.189828594888638</v>
+        <v>0.205160758633747</v>
       </c>
       <c s="3" t="str" r="H49"/>
       <c s="7" r="I49">
-        <v>0.119559111248862</v>
+        <v>0.232391781189847</v>
       </c>
       <c s="7" r="J49">
-        <v>0.0850364572983384</v>
+        <v>0.260620484487888</v>
       </c>
     </row>
     <row r="50" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">12091</t>
+          <t xml:space="preserve">42091</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B50">
         <is>
-          <t xml:space="preserve">Okaloosa, FL        </t>
+          <t xml:space="preserve">Montgomery, PA        </t>
         </is>
       </c>
       <c s="8" r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="7" r="D50">
-        <v>0.329192236691114</v>
+        <v>0.17263374079267</v>
       </c>
       <c s="7" r="E50">
-        <v>0.225730323820441</v>
+        <v>0.248633433350168</v>
       </c>
       <c s="7" r="F50">
-        <v>0.162250126448662</v>
+        <v>0.320779756229546</v>
       </c>
       <c s="7" r="G50">
-        <v>0.11981784059273</v>
+        <v>0.387280928759322</v>
       </c>
       <c s="3" t="str" r="H50"/>
       <c s="7" r="I50">
-        <v>0.0882872659479614</v>
+        <v>0.451428684630429</v>
       </c>
       <c s="7" r="J50">
-        <v>0.0711907846168847</v>
+        <v>0.507475443551887</v>
       </c>
     </row>
     <row r="51" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">12093</t>
+          <t xml:space="preserve">42093</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B51">
         <is>
-          <t xml:space="preserve">Okeechobee, FL        </t>
+          <t xml:space="preserve">Montour, PA        </t>
         </is>
       </c>
       <c s="8" r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="7" r="D51">
-        <v>0.670544783010157</v>
+        <v>0.069788338658147</v>
       </c>
       <c s="7" r="E51">
-        <v>0.494131860545392</v>
+        <v>0.137914510254936</v>
       </c>
       <c s="7" r="F51">
-        <v>0.409179946000318</v>
+        <v>0.187181415559455</v>
       </c>
       <c s="7" r="G51">
-        <v>0.348939627159227</v>
+        <v>0.22094965402052</v>
       </c>
       <c s="3" t="str" r="H51"/>
       <c s="7" r="I51">
-        <v>0.31047561253129</v>
+        <v>0.260488704472107</v>
       </c>
       <c s="7" r="J51">
-        <v>0.193778630020241</v>
+        <v>0.355599214145383</v>
       </c>
     </row>
     <row r="52" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">12095</t>
+          <t xml:space="preserve">42095</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B52">
         <is>
-          <t xml:space="preserve">Orange, FL        </t>
+          <t xml:space="preserve">Northampton, PA        </t>
         </is>
       </c>
       <c s="8" r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D52">
-        <v>0.434469104815895</v>
+        <v>0.0777430426865624</v>
       </c>
       <c s="7" r="E52">
-        <v>0.295886578698445</v>
+        <v>0.123159207903755</v>
       </c>
       <c s="7" r="F52">
-        <v>0.211933094705375</v>
+        <v>0.167361466036934</v>
       </c>
       <c s="7" r="G52">
-        <v>0.182182229259312</v>
+        <v>0.211634392116344</v>
       </c>
       <c s="3" t="str" r="H52"/>
       <c s="7" r="I52">
-        <v>0.129163352453965</v>
+        <v>0.266169815033451</v>
       </c>
       <c s="7" r="J52">
-        <v>0.105328967640912</v>
+        <v>0.327825820524898</v>
       </c>
     </row>
     <row r="53" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">12097</t>
+          <t xml:space="preserve">42097</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B53">
         <is>
-          <t xml:space="preserve">Osceola, FL        </t>
+          <t xml:space="preserve">Northumberland, PA        </t>
         </is>
       </c>
       <c s="8" r="C53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="7" r="D53">
-        <v>0.55721864342554</v>
+        <v>0.0438314660984502</v>
       </c>
       <c s="7" r="E53">
-        <v>0.385665529010239</v>
+        <v>0.0671487120350314</v>
       </c>
       <c s="7" r="F53">
-        <v>0.263467342406469</v>
+        <v>0.0862535321939647</v>
       </c>
       <c s="7" r="G53">
-        <v>0.208802336199336</v>
+        <v>0.110650852306592</v>
       </c>
       <c s="3" t="str" r="H53"/>
       <c s="7" r="I53">
-        <v>0.154266336934756</v>
+        <v>0.137950317871439</v>
       </c>
       <c s="7" r="J53">
-        <v>0.133899199612703</v>
+        <v>0.17800602247995</v>
       </c>
     </row>
     <row r="54" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">12099</t>
+          <t xml:space="preserve">42099</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B54">
         <is>
-          <t xml:space="preserve">Palm Beach, FL        </t>
+          <t xml:space="preserve">Perry, PA        </t>
         </is>
       </c>
       <c s="8" r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D54">
-        <v>0.443159886825685</v>
+        <v>0.0395359102087143</v>
       </c>
       <c s="7" r="E54">
-        <v>0.292992443794268</v>
+        <v>0.0722524068248975</v>
       </c>
       <c s="7" r="F54">
-        <v>0.212124136578081</v>
+        <v>0.0886772406465812</v>
       </c>
       <c s="7" r="G54">
-        <v>0.164257444990152</v>
+        <v>0.113367521367521</v>
       </c>
       <c s="3" t="str" r="H54"/>
       <c s="7" r="I54">
-        <v>0.127615746451018</v>
+        <v>0.152193856568916</v>
       </c>
       <c s="7" r="J54">
-        <v>0.109333990784038</v>
+        <v>0.179112652912178</v>
       </c>
     </row>
     <row r="55" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">12101</t>
+          <t xml:space="preserve">42101</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B55">
         <is>
-          <t xml:space="preserve">Pasco, FL        </t>
+          <t xml:space="preserve">Philadelphia, PA        </t>
         </is>
       </c>
       <c s="8" r="C55">
         <v>1</v>
       </c>
       <c s="7" r="D55">
-        <v>0.577659476824231</v>
+        <v>0.0681745458045919</v>
       </c>
       <c s="7" r="E55">
-        <v>0.44196400576911</v>
+        <v>0.110792855618849</v>
       </c>
       <c s="7" r="F55">
-        <v>0.331392395537411</v>
+        <v>0.152246268416415</v>
       </c>
       <c s="7" r="G55">
-        <v>0.224278981649652</v>
+        <v>0.178680952228169</v>
       </c>
       <c s="3" t="str" r="H55"/>
       <c s="7" r="I55">
-        <v>0.131220082461034</v>
+        <v>0.231968872451182</v>
       </c>
       <c s="7" r="J55">
-        <v>0.0956561090498145</v>
+        <v>0.325214894479778</v>
       </c>
     </row>
     <row r="56" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">12103</t>
+          <t xml:space="preserve">42103</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B56">
         <is>
-          <t xml:space="preserve">Pinellas, FL        </t>
+          <t xml:space="preserve">Pike, PA        </t>
         </is>
       </c>
       <c s="8" r="C56">
         <v>1</v>
       </c>
       <c s="7" r="D56">
-        <v>0.469702196159595</v>
+        <v>0.0850550040246847</v>
       </c>
       <c s="7" r="E56">
-        <v>0.31676174279112</v>
+        <v>0.117461855170744</v>
       </c>
       <c s="7" r="F56">
-        <v>0.219464437166763</v>
+        <v>0.146771241830065</v>
       </c>
       <c s="7" r="G56">
-        <v>0.159887712179381</v>
+        <v>0.189881046788263</v>
       </c>
       <c s="3" t="str" r="H56"/>
       <c s="7" r="I56">
-        <v>0.112515161122374</v>
+        <v>0.225826575171553</v>
       </c>
       <c s="7" r="J56">
-        <v>0.0785322660048691</v>
+        <v>0.267831783407394</v>
       </c>
     </row>
     <row r="57" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">12105</t>
+          <t xml:space="preserve">42105</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B57">
         <is>
-          <t xml:space="preserve">Polk, FL        </t>
+          <t xml:space="preserve">Potter, PA        </t>
         </is>
       </c>
       <c s="8" r="C57">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c s="7" r="D57">
-        <v>0.537145970359024</v>
+        <v>0.0540600420959344</v>
       </c>
       <c s="7" r="E57">
-        <v>0.402122876994997</v>
+        <v>0.0837452747891829</v>
       </c>
       <c s="7" r="F57">
-        <v>0.319946501799853</v>
+        <v>0.0981838296303125</v>
       </c>
       <c s="7" r="G57">
-        <v>0.252415636649009</v>
+        <v>0.122941370223979</v>
       </c>
       <c s="3" t="str" r="H57"/>
       <c s="7" r="I57">
-        <v>0.178518933381595</v>
+        <v>0.135729352588025</v>
       </c>
       <c s="7" r="J57">
-        <v>0.136426373084532</v>
+        <v>0.162975344755537</v>
       </c>
     </row>
     <row r="58" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">12107</t>
+          <t xml:space="preserve">42107</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B58">
         <is>
-          <t xml:space="preserve">Putnam, FL        </t>
+          <t xml:space="preserve">Schuylkill, PA        </t>
         </is>
       </c>
       <c s="8" r="C58">
         <v>4</v>
       </c>
       <c s="7" r="D58">
-        <v>0.599672784907204</v>
+        <v>0.0348619795331631</v>
       </c>
       <c s="7" r="E58">
-        <v>0.446913341706115</v>
+        <v>0.0614144039134007</v>
       </c>
       <c s="7" r="F58">
-        <v>0.356873801215539</v>
+        <v>0.0809224516799773</v>
       </c>
       <c s="7" r="G58">
-        <v>0.296476204434581</v>
+        <v>0.107295620775854</v>
       </c>
       <c s="3" t="str" r="H58"/>
       <c s="7" r="I58">
-        <v>0.223336781093265</v>
+        <v>0.13976604924496</v>
       </c>
       <c s="7" r="J58">
-        <v>0.181385752765201</v>
+        <v>0.17777374077332</v>
       </c>
     </row>
     <row r="59" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">12109</t>
+          <t xml:space="preserve">42109</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B59">
         <is>
-          <t xml:space="preserve">St. Johns, FL        </t>
+          <t xml:space="preserve">Snyder, PA        </t>
         </is>
       </c>
       <c s="8" r="C59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c s="7" r="D59">
-        <v>0.520230215827338</v>
+        <v>0.0641662901039313</v>
       </c>
       <c s="7" r="E59">
-        <v>0.340277123197285</v>
+        <v>0.0966938288264909</v>
       </c>
       <c s="7" r="F59">
-        <v>0.200863144758735</v>
+        <v>0.105883912006361</v>
       </c>
       <c s="7" r="G59">
-        <v>0.128040928549055</v>
+        <v>0.125036131643061</v>
       </c>
       <c s="3" t="str" r="H59"/>
       <c s="7" r="I59">
-        <v>0.0725290621021148</v>
+        <v>0.157388369476665</v>
       </c>
       <c s="7" r="J59">
-        <v>0.0530020200310937</v>
+        <v>0.21637558685446</v>
       </c>
     </row>
     <row r="60" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">12111</t>
+          <t xml:space="preserve">42111</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B60">
         <is>
-          <t xml:space="preserve">St. Lucie, FL        </t>
+          <t xml:space="preserve">Somerset, PA        </t>
         </is>
       </c>
       <c s="8" r="C60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D60">
-        <v>0.532019704433498</v>
+        <v>0.0428311747330152</v>
       </c>
       <c s="7" r="E60">
-        <v>0.373148468671999</v>
+        <v>0.0738787350143011</v>
       </c>
       <c s="7" r="F60">
-        <v>0.283377913641574</v>
+        <v>0.0888004286917247</v>
       </c>
       <c s="7" r="G60">
-        <v>0.223257211538462</v>
+        <v>0.108156408606762</v>
       </c>
       <c s="3" t="str" r="H60"/>
       <c s="7" r="I60">
-        <v>0.157835885967522</v>
+        <v>0.140286312972126</v>
       </c>
       <c s="7" r="J60">
-        <v>0.117818844769304</v>
+        <v>0.168860358902435</v>
       </c>
     </row>
     <row r="61" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">12113</t>
+          <t xml:space="preserve">42113</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B61">
         <is>
-          <t xml:space="preserve">Santa Rosa, FL        </t>
+          <t xml:space="preserve">Sullivan, PA        </t>
         </is>
       </c>
       <c s="8" r="C61">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c s="7" r="D61">
-        <v>0.451674641148325</v>
+        <v>0.037551744529864</v>
       </c>
       <c s="7" r="E61">
-        <v>0.304672048763091</v>
+        <v>0.0802842853382469</v>
       </c>
       <c s="7" r="F61">
-        <v>0.215361503794153</v>
+        <v>0.0856380397865114</v>
       </c>
       <c s="7" r="G61">
-        <v>0.145651562060231</v>
+        <v>0.127924447306289</v>
       </c>
       <c s="3" t="str" r="H61"/>
       <c s="7" r="I61">
-        <v>0.107029893924783</v>
+        <v>0.130029033596018</v>
       </c>
       <c s="7" r="J61">
-        <v>0.0771726034168495</v>
+        <v>0.179272281275552</v>
       </c>
     </row>
     <row r="62" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">12115</t>
+          <t xml:space="preserve">42115</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B62">
         <is>
-          <t xml:space="preserve">Sarasota, FL        </t>
+          <t xml:space="preserve">Susquehanna, PA        </t>
         </is>
       </c>
       <c s="8" r="C62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D62">
-        <v>0.361363397271803</v>
+        <v>0.052316419791995</v>
       </c>
       <c s="7" r="E62">
-        <v>0.266173395314144</v>
+        <v>0.0872727272727273</v>
       </c>
       <c s="7" r="F62">
-        <v>0.187487061529615</v>
+        <v>0.111170192563333</v>
       </c>
       <c s="7" r="G62">
-        <v>0.129142296399561</v>
+        <v>0.132115741226689</v>
       </c>
       <c s="3" t="str" r="H62"/>
       <c s="7" r="I62">
-        <v>0.0837940317622092</v>
+        <v>0.161026536087139</v>
       </c>
       <c s="7" r="J62">
-        <v>0.0631613246713196</v>
+        <v>0.194431940164133</v>
       </c>
     </row>
     <row r="63" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">12117</t>
+          <t xml:space="preserve">42117</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B63">
         <is>
-          <t xml:space="preserve">Seminole, FL        </t>
+          <t xml:space="preserve">Tioga, PA        </t>
         </is>
       </c>
       <c s="8" r="C63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D63">
-        <v>0.455724747700277</v>
+        <v>0.0728982083087222</v>
       </c>
       <c s="7" r="E63">
-        <v>0.238017247760752</v>
+        <v>0.103103059720898</v>
       </c>
       <c s="7" r="F63">
-        <v>0.153620982378081</v>
+        <v>0.126446601941748</v>
       </c>
       <c s="7" r="G63">
-        <v>0.11316278534307</v>
+        <v>0.142073888725346</v>
       </c>
       <c s="3" t="str" r="H63"/>
       <c s="7" r="I63">
-        <v>0.0867089608632234</v>
+        <v>0.179908167524697</v>
       </c>
       <c s="7" r="J63">
-        <v>0.0581989145716489</v>
+        <v>0.206733709315757</v>
       </c>
     </row>
     <row r="64" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">12119</t>
+          <t xml:space="preserve">42119</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B64">
         <is>
-          <t xml:space="preserve">Sumter, FL        </t>
+          <t xml:space="preserve">Union, PA        </t>
         </is>
       </c>
       <c s="8" r="C64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="7" r="D64">
-        <v>0.637999280316661</v>
+        <v>0.0969265609835005</v>
       </c>
       <c s="7" r="E64">
-        <v>0.487245242272911</v>
+        <v>0.142787917945405</v>
       </c>
       <c s="7" r="F64">
-        <v>0.357387844697489</v>
+        <v>0.174712748081203</v>
       </c>
       <c s="7" r="G64">
-        <v>0.227324194752945</v>
+        <v>0.180262345118273</v>
       </c>
       <c s="3" t="str" r="H64"/>
       <c s="7" r="I64">
-        <v>0.136629742991789</v>
+        <v>0.220667278447824</v>
       </c>
       <c s="7" r="J64">
-        <v>0.0778001516776066</v>
+        <v>0.261260341129609</v>
       </c>
     </row>
     <row r="65" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">12121</t>
+          <t xml:space="preserve">42121</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B65">
         <is>
-          <t xml:space="preserve">Suwannee, FL        </t>
+          <t xml:space="preserve">Venango, PA        </t>
         </is>
       </c>
       <c s="8" r="C65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="7" r="D65">
-        <v>0.663786982248521</v>
+        <v>0.0549719789349179</v>
       </c>
       <c s="7" r="E65">
-        <v>0.466854832557785</v>
+        <v>0.092095498861281</v>
       </c>
       <c s="7" r="F65">
-        <v>0.362302224260491</v>
+        <v>0.107683707693871</v>
       </c>
       <c s="7" r="G65">
-        <v>0.267580452920143</v>
+        <v>0.130544124371285</v>
       </c>
       <c s="3" t="str" r="H65"/>
       <c s="7" r="I65">
-        <v>0.207746478873239</v>
+        <v>0.147172038595771</v>
       </c>
       <c s="7" r="J65">
-        <v>0.170931289777893</v>
+        <v>0.194218392638689</v>
       </c>
     </row>
     <row r="66" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">12123</t>
+          <t xml:space="preserve">42123</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B66">
         <is>
-          <t xml:space="preserve">Taylor, FL        </t>
+          <t xml:space="preserve">Warren, PA        </t>
         </is>
       </c>
       <c s="8" r="C66">
         <v>6</v>
       </c>
       <c s="7" r="D66">
-        <v>0.636211232187762</v>
+        <v>0.0688640162802529</v>
       </c>
       <c s="7" r="E66">
-        <v>0.474292256452956</v>
+        <v>0.0913259325656761</v>
       </c>
       <c s="7" r="F66">
-        <v>0.379475379659457</v>
+        <v>0.107209178936198</v>
       </c>
       <c s="7" r="G66">
-        <v>0.299907077590212</v>
+        <v>0.141869985262813</v>
       </c>
       <c s="3" t="str" r="H66"/>
       <c s="7" r="I66">
-        <v>0.222594038544959</v>
+        <v>0.171956969254267</v>
       </c>
       <c s="7" r="J66">
-        <v>0.178008506379785</v>
+        <v>0.194901603753764</v>
       </c>
     </row>
     <row r="67" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">12125</t>
+          <t xml:space="preserve">42125</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B67">
         <is>
-          <t xml:space="preserve">Union, FL        </t>
+          <t xml:space="preserve">Washington, PA        </t>
         </is>
       </c>
       <c s="8" r="C67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D67">
-        <v>0.660577740016992</v>
+        <v>0.0627503557416288</v>
       </c>
       <c s="7" r="E67">
-        <v>0.430701616700675</v>
+        <v>0.107213888046846</v>
       </c>
       <c s="7" r="F67">
-        <v>0.322638412177287</v>
+        <v>0.136284579322192</v>
       </c>
       <c s="7" r="G67">
-        <v>0.275339100715583</v>
+        <v>0.188054996552161</v>
       </c>
       <c s="3" t="str" r="H67"/>
       <c s="7" r="I67">
-        <v>0.251700055136923</v>
+        <v>0.250325474238118</v>
       </c>
       <c s="7" r="J67">
-        <v>0.226809378185525</v>
+        <v>0.317213556032621</v>
       </c>
     </row>
     <row r="68" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">12127</t>
+          <t xml:space="preserve">42127</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B68">
         <is>
-          <t xml:space="preserve">Volusia, FL        </t>
+          <t xml:space="preserve">Wayne, PA        </t>
         </is>
       </c>
       <c s="8" r="C68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D68">
-        <v>0.430564051233572</v>
+        <v>0.0487363600384463</v>
       </c>
       <c s="7" r="E68">
-        <v>0.334541521396435</v>
+        <v>0.0879621114585249</v>
       </c>
       <c s="7" r="F68">
-        <v>0.24575044727136</v>
+        <v>0.130542148389269</v>
       </c>
       <c s="7" r="G68">
-        <v>0.179626448104658</v>
+        <v>0.145592030246654</v>
       </c>
       <c s="3" t="str" r="H68"/>
       <c s="7" r="I68">
-        <v>0.124654926225607</v>
+        <v>0.183501683501684</v>
       </c>
       <c s="7" r="J68">
-        <v>0.0886839948771045</v>
+        <v>0.195916914550123</v>
       </c>
     </row>
     <row r="69" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">12129</t>
+          <t xml:space="preserve">42129</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B69">
         <is>
-          <t xml:space="preserve">Wakulla, FL        </t>
+          <t xml:space="preserve">Westmoreland, PA        </t>
         </is>
       </c>
       <c s="8" r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="7" r="D69">
-        <v>0.68502994011976</v>
+        <v>0.0704044015486931</v>
       </c>
       <c s="7" r="E69">
-        <v>0.433471601786854</v>
+        <v>0.123971300668425</v>
       </c>
       <c s="7" r="F69">
-        <v>0.283756906077348</v>
+        <v>0.153583844640755</v>
       </c>
       <c s="7" r="G69">
-        <v>0.21602787456446</v>
+        <v>0.201978049492968</v>
       </c>
       <c s="3" t="str" r="H69"/>
       <c s="7" r="I69">
-        <v>0.131077328564033</v>
+        <v>0.247370509646819</v>
       </c>
       <c s="7" r="J69">
-        <v>0.118215767634855</v>
+        <v>0.307629789981391</v>
       </c>
     </row>
     <row r="70" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">12131</t>
+          <t xml:space="preserve">42131</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B70">
         <is>
-          <t xml:space="preserve">Walton, FL        </t>
+          <t xml:space="preserve">Wyoming, PA        </t>
         </is>
       </c>
       <c s="8" r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="7" r="D70">
-        <v>0.624595119844526</v>
+        <v>0.068753600921836</v>
       </c>
       <c s="7" r="E70">
-        <v>0.492188662401428</v>
+        <v>0.106987761547572</v>
       </c>
       <c s="7" r="F70">
-        <v>0.334546386468478</v>
+        <v>0.132297063903282</v>
       </c>
       <c s="7" r="G70">
-        <v>0.240446632914904</v>
+        <v>0.154420788645216</v>
       </c>
       <c s="3" t="str" r="H70"/>
       <c s="7" r="I70">
-        <v>0.142614388884724</v>
+        <v>0.176003259319617</v>
       </c>
       <c s="7" r="J70">
-        <v>0.0877584933530281</v>
+        <v>0.209122474747475</v>
       </c>
     </row>
     <row r="71" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">12133</t>
+          <t xml:space="preserve">42133</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B71">
         <is>
-          <t xml:space="preserve">Washington, FL        </t>
+          <t xml:space="preserve">York, PA        </t>
         </is>
       </c>
       <c s="8" r="C71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c s="7" r="D71">
-        <v>0.679277864992151</v>
+        <v>0.0687846827843583</v>
       </c>
       <c s="7" r="E71">
-        <v>0.489520788489861</v>
+        <v>0.112753925378321</v>
       </c>
       <c s="7" r="F71">
-        <v>0.390990187332739</v>
+        <v>0.138911962899952</v>
       </c>
       <c s="7" r="G71">
-        <v>0.287836518342865</v>
+        <v>0.183770846201359</v>
       </c>
       <c s="3" t="str" r="H71"/>
       <c s="7" r="I71">
-        <v>0.197619183883706</v>
+        <v>0.216481787772729</v>
       </c>
       <c s="7" r="J71">
-        <v>0.164285714285714</v>
+        <v>0.25807509427775</v>
       </c>
     </row>
     <row r="72" ht="0.05" customHeight="1"/>
